--- a/src/main/java/com/datadriven/Testdata/TestData.xlsx
+++ b/src/main/java/com/datadriven/Testdata/TestData.xlsx
@@ -24,7 +24,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="15" uniqueCount="11">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="33" uniqueCount="11">
   <si>
     <t>TestCaseName</t>
   </si>
